--- a/basictemplate.xlsx
+++ b/basictemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrsampso/Documents/Data Display Project/Python version/HTE-Data-Visualization-in-R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67472780-5FC2-EE4B-88A9-D0824E879AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D80E01-AC4D-264F-AAEA-9F943D83595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="1700" windowWidth="23500" windowHeight="12400" activeTab="1" xr2:uid="{B85C326F-19A5-6A41-908F-2FE2154FA7DA}"/>
+    <workbookView xWindow="12460" yWindow="1700" windowWidth="23500" windowHeight="12400" xr2:uid="{B85C326F-19A5-6A41-908F-2FE2154FA7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Example Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="14">
   <si>
     <t>col_no</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>product_3_yield</t>
+  </si>
+  <si>
+    <t>product_4_yield</t>
+  </si>
+  <si>
+    <t>misc1</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -414,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DE2E44-334C-D149-83E4-97D2FC1B231F}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -439,16 +451,28 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -459,26 +483,42 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>34</v>
+        <f ca="1">RANDBETWEEN(0,30)</f>
+        <v>23</v>
       </c>
       <c r="E2">
-        <f ca="1">100-D2</f>
-        <v>66</v>
+        <f ca="1">RANDBETWEEN(0,30)</f>
+        <v>1</v>
       </c>
       <c r="F2">
+        <f ca="1">RANDBETWEEN(0,30)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f ca="1">100-D2-E2-F2</f>
+        <v>75</v>
+      </c>
+      <c r="H2">
         <f ca="1">(D2-E2)/(D2+E2)*100</f>
-        <v>-32</v>
-      </c>
-      <c r="G2">
-        <f ca="1">ABS(F2)</f>
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>91.666666666666657</v>
+      </c>
+      <c r="I2">
+        <f ca="1">RANDBETWEEN(0,40)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f ca="1">RANDBETWEEN(0,40)</f>
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <f ca="1">100-I2-J2</f>
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,26 +529,42 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(0,100)</f>
+        <f t="shared" ref="D3:F34" ca="1" si="0">RANDBETWEEN(0,30)</f>
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" ca="1" si="1">100-D3</f>
-        <v>78</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" ca="1" si="2">(D3-E3)/(D3+E3)*100</f>
-        <v>-56.000000000000007</v>
-      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" ca="1" si="3">ABS(F3)</f>
-        <v>56.000000000000007</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G3:G66" ca="1" si="1">100-D3-E3-F3</f>
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" ca="1" si="2">(D3-E3)/(D3+E3)*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:J66" ca="1" si="3">RANDBETWEEN(0,40)</f>
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" ca="1" si="4">100-I3-J3</f>
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -520,25 +576,41 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="2"/>
-        <v>-84</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="2"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -550,55 +622,87 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.3829787234042552</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="3"/>
         <v>39</v>
       </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="2"/>
-        <v>-22</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="2"/>
-        <v>-28.000000000000004</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="3"/>
-        <v>28.000000000000004</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -610,25 +714,41 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="2"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -643,22 +763,38 @@
         <v>14</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="2"/>
-        <v>-72</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-12.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -670,25 +806,41 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.638297872340425</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -700,25 +852,41 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -730,25 +898,41 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="2"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="4"/>
         <v>72</v>
       </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -760,25 +944,41 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -790,25 +990,41 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="2"/>
+        <v>-76.470588235294116</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -820,25 +1036,41 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -850,25 +1082,41 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.5641025641025639</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -880,25 +1128,41 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>81</v>
-      </c>
       <c r="F16">
-        <f t="shared" ca="1" si="2"/>
-        <v>-62</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.3170731707317067</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -913,22 +1177,38 @@
         <v>13</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="2"/>
-        <v>-74</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.043478260869565</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -940,25 +1220,41 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="H18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="2"/>
+        <v>43.75</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="L18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -970,25 +1266,41 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-57.999999999999993</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="3"/>
-        <v>57.999999999999993</v>
-      </c>
-      <c r="H19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
+        <v>-89.473684210526315</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1000,25 +1312,41 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="2"/>
-        <v>-14.000000000000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.000000000000002</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.7619047619047619</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1030,25 +1358,41 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="2"/>
-        <v>-84</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="H21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1060,25 +1404,41 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>-44.444444444444443</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1090,25 +1450,41 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="L23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1120,25 +1496,41 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>-94</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="H24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1150,25 +1542,41 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="2"/>
-        <v>57.999999999999993</v>
-      </c>
       <c r="G25">
-        <f t="shared" ca="1" si="3"/>
-        <v>57.999999999999993</v>
-      </c>
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="L25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1180,25 +1588,41 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="2"/>
+        <v>-78.94736842105263</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="2"/>
-        <v>-88</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="H26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1210,25 +1634,41 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="H27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1240,25 +1680,41 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="H28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1270,25 +1726,41 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="2"/>
+        <v>-36.363636363636367</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="L29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1300,25 +1772,41 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="2"/>
-        <v>-92</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="H30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="2"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="L30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1330,25 +1818,41 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="2"/>
-        <v>-32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="H31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.204081632653061</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="L31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1360,25 +1864,41 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="2"/>
-        <v>-24</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="H32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="2"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="L32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1390,25 +1910,41 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="H33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="2"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1420,25 +1956,41 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-76.470588235294116</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="L34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1449,26 +2001,42 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <f t="shared" ref="D35:F66" ca="1" si="5">RANDBETWEEN(0,30)</f>
+        <v>23</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="H35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="2"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="L35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1479,26 +2047,42 @@
         <v>11</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="H36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="2"/>
+        <v>-14.285714285714285</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1509,26 +2093,42 @@
         <v>12</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="2"/>
-        <v>-86</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="H37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="2"/>
+        <v>-42.857142857142854</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="L37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1539,26 +2139,42 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.000000000000002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.000000000000002</v>
-      </c>
-      <c r="H38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="2"/>
+        <v>-61.904761904761905</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1569,26 +2185,42 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="H39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="2"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1599,26 +2231,42 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="2"/>
-        <v>-96</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="H40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="2"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="L40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1629,26 +2277,42 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="H41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="2"/>
+        <v>-57.575757575757578</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="L41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1659,26 +2323,42 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="2"/>
+        <v>-9.0909090909090917</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="L42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1689,26 +2369,42 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="2"/>
-        <v>-26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="H43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="2"/>
+        <v>-27.27272727272727</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="L43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1719,26 +2415,42 @@
         <v>7</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="2"/>
-        <v>-38</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="H44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="2"/>
+        <v>-58.82352941176471</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1749,26 +2461,42 @@
         <v>8</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>28</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="H45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="L45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1779,26 +2507,42 @@
         <v>9</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="2"/>
-        <v>-14.000000000000002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.000000000000002</v>
-      </c>
-      <c r="H46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="L46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1809,26 +2553,42 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>28</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="G47">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="H47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="2"/>
+        <v>51.351351351351347</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="L47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1839,26 +2599,42 @@
         <v>11</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="2"/>
-        <v>-12</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="2"/>
+        <v>51.515151515151516</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="L48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1869,26 +2645,42 @@
         <v>12</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="2"/>
+        <v>-20.930232558139537</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="L49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1899,26 +2691,42 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="H50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="2"/>
+        <v>-25</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="L50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1929,26 +2737,42 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="2"/>
+        <v>-40</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="L51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1959,26 +2783,42 @@
         <v>3</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="F52">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="H52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="L52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1989,26 +2829,42 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="F53">
-        <f t="shared" ca="1" si="2"/>
-        <v>-32</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="H53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="2"/>
+        <v>79.310344827586206</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="L53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2019,26 +2875,42 @@
         <v>5</v>
       </c>
       <c r="D54">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
       </c>
       <c r="F54">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="H54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="2"/>
+        <v>-10.204081632653061</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="L54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2049,26 +2921,42 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="F55">
-        <f t="shared" ca="1" si="2"/>
-        <v>-42</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>42</v>
       </c>
-      <c r="H55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <f t="shared" ca="1" si="2"/>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="L55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2079,26 +2967,42 @@
         <v>7</v>
       </c>
       <c r="D56">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
       </c>
       <c r="F56">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="G56">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="H56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.25</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="L56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2109,26 +3013,42 @@
         <v>8</v>
       </c>
       <c r="D57">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
       </c>
       <c r="F57">
-        <f t="shared" ca="1" si="2"/>
-        <v>-72</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
       </c>
       <c r="G57">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="H57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="2"/>
+        <v>-66.666666666666657</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="L57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2139,26 +3059,42 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
       </c>
       <c r="G58">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="H58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="L58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2169,26 +3105,42 @@
         <v>10</v>
       </c>
       <c r="D59">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
       </c>
       <c r="F59">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="G59">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.5641025641025639</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="L59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2199,26 +3151,42 @@
         <v>11</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="F60">
-        <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G60">
-        <f t="shared" ca="1" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="H60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="2"/>
+        <v>-71.428571428571431</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="L60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2229,26 +3197,42 @@
         <v>12</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="F61">
-        <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
       </c>
       <c r="G61">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="H61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ca="1" si="2"/>
+        <v>-60</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="L61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2259,26 +3243,42 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="F62">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
       </c>
       <c r="G62">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="H62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="L62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2289,26 +3289,42 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F63">
-        <f t="shared" ca="1" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G63">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="H63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.195121951219512</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="L63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2319,26 +3335,42 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="F64">
-        <f t="shared" ca="1" si="2"/>
-        <v>-36</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="G64">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="H64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="2"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="L64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2349,26 +3381,42 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
       </c>
       <c r="F65">
-        <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
       </c>
       <c r="G65">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="H65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="2"/>
+        <v>-73.333333333333329</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="L65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2379,26 +3427,42 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
       </c>
       <c r="E66">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="F66">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
       </c>
       <c r="G66">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="H66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="L66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2409,26 +3473,42 @@
         <v>6</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D97" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>27</v>
+        <f t="shared" ref="D67:F97" ca="1" si="6">RANDBETWEEN(0,30)</f>
+        <v>8</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E97" ca="1" si="5">100-D67</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F97" ca="1" si="6">(D67-E67)/(D67+E67)*100</f>
-        <v>-46</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G97" ca="1" si="7">ABS(F67)</f>
-        <v>46</v>
-      </c>
-      <c r="H67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G67:G97" ca="1" si="7">100-D67-E67-F67</f>
+        <v>43</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H97" ca="1" si="8">(D67-E67)/(D67+E67)*100</f>
+        <v>-44.827586206896555</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:J97" ca="1" si="9">RANDBETWEEN(0,40)</f>
+        <v>24</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ca="1" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K97" ca="1" si="10">100-I67-J67</f>
+        <v>57</v>
+      </c>
+      <c r="L67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2439,26 +3519,42 @@
         <v>7</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>-20</v>
+        <v>22</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="8"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="9"/>
         <v>20</v>
       </c>
-      <c r="H68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <f t="shared" ca="1" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="10"/>
+        <v>43</v>
+      </c>
+      <c r="L68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2469,26 +3565,42 @@
         <v>8</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>-78</v>
+        <v>19</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="H69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ca="1" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="L69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2499,26 +3611,42 @@
         <v>9</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="H70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ca="1" si="8"/>
+        <v>-92.857142857142861</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ca="1" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="L70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2529,26 +3657,42 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
-      </c>
-      <c r="H71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ca="1" si="8"/>
+        <v>-77.777777777777786</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ca="1" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="L71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2559,26 +3703,42 @@
         <v>11</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>56.000000000000007</v>
+        <v>27</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>56.000000000000007</v>
-      </c>
-      <c r="H72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="8"/>
+        <v>-92.592592592592595</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ca="1" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="L72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2589,26 +3749,42 @@
         <v>12</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>-42</v>
+        <v>21</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="H73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="8"/>
+        <v>-100</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ca="1" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ca="1" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="L73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2619,26 +3795,42 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>30</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="H74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ca="1" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="L74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2649,26 +3841,42 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
       </c>
       <c r="E75">
-        <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>-82</v>
+        <v>17</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
-      </c>
-      <c r="H75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="8"/>
+        <v>-13.043478260869565</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ca="1" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ca="1" si="10"/>
+        <v>59</v>
+      </c>
+      <c r="L75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2679,12 +3887,12 @@
         <v>3</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="E76">
-        <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
@@ -2692,13 +3900,29 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="H76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="8"/>
+        <v>-66.666666666666657</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ca="1" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ca="1" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="L76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2709,26 +3933,42 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>30</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="H77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="8"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ca="1" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ca="1" si="10"/>
+        <v>62</v>
+      </c>
+      <c r="L77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2739,26 +3979,42 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="H78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="8"/>
+        <v>-54.285714285714285</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ca="1" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ca="1" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="L78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2769,26 +4025,42 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>-44</v>
+        <v>12</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="H79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ca="1" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ca="1" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="L79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2799,26 +4071,42 @@
         <v>7</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>28.000000000000004</v>
+        <v>5</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>28.000000000000004</v>
-      </c>
-      <c r="H80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="8"/>
+        <v>-70.370370370370367</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="L80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2829,26 +4117,42 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="H81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="8"/>
+        <v>-88.888888888888886</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="J81">
+        <f t="shared" ca="1" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="K81">
+        <f t="shared" ca="1" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="L81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2859,26 +4163,42 @@
         <v>9</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>-42</v>
+        <v>6</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="H82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="8"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ca="1" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="L82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2889,26 +4209,42 @@
         <v>10</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>-90</v>
+        <v>17</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="H83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="8"/>
+        <v>-52.380952380952387</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ca="1" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="L83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2919,26 +4255,42 @@
         <v>11</v>
       </c>
       <c r="D84">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="H84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="8"/>
+        <v>-31.25</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" ca="1" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="L84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2949,26 +4301,42 @@
         <v>12</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>30</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="H85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="8"/>
+        <v>57.894736842105267</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ca="1" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ca="1" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="L85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2979,26 +4347,42 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
       </c>
       <c r="E86">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="H86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="8"/>
+        <v>-11.627906976744185</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ca="1" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ca="1" si="10"/>
+        <v>53</v>
+      </c>
+      <c r="L86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3009,26 +4393,42 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>-92</v>
+        <v>25</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="H87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="8"/>
+        <v>-16.666666666666664</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="J87">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ca="1" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="L87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3039,26 +4439,42 @@
         <v>3</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>28.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>28.000000000000004</v>
-      </c>
-      <c r="H88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="8"/>
+        <v>-57.142857142857139</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ca="1" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ca="1" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="L88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3069,26 +4485,42 @@
         <v>4</v>
       </c>
       <c r="D89">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>-92</v>
+        <v>18</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="H89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.324324324324326</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ca="1" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="K89">
+        <f t="shared" ca="1" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="L89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3099,26 +4531,42 @@
         <v>5</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="H90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="L90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3129,26 +4577,42 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="H91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="8"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="J91">
+        <f t="shared" ca="1" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ca="1" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="L91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3159,26 +4623,42 @@
         <v>7</v>
       </c>
       <c r="D92">
-        <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="H92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="8"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ca="1" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ca="1" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="L92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3189,26 +4669,42 @@
         <v>8</v>
       </c>
       <c r="D93">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="H93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ca="1" si="10"/>
+        <v>43</v>
+      </c>
+      <c r="L93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3219,26 +4715,42 @@
         <v>9</v>
       </c>
       <c r="D94">
-        <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>-28.000000000000004</v>
+        <v>13</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>28.000000000000004</v>
-      </c>
-      <c r="H94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="8"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ca="1" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="L94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3249,26 +4761,42 @@
         <v>10</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>14.000000000000002</v>
+        <v>12</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>14.000000000000002</v>
-      </c>
-      <c r="H95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="8"/>
+        <v>-3.5714285714285712</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ca="1" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="L95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3279,26 +4807,42 @@
         <v>11</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="H96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="8"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ca="1" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="L96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3309,22 +4853,38 @@
         <v>12</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
       </c>
       <c r="E97">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="H97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ca="1" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="L97" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3337,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3899A368-B36F-8A49-8F15-9FB82EA484CE}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
